--- a/data/trans_orig/P17E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>50324</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38915</v>
+        <v>38274</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64824</v>
+        <v>64682</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1501715561845533</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1161263116746425</v>
+        <v>0.1142141611655773</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.193441903337915</v>
+        <v>0.1930172003647856</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -765,19 +765,19 @@
         <v>67531</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52819</v>
+        <v>54576</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84492</v>
+        <v>83456</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1278824911180878</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1000230529743828</v>
+        <v>0.1033495425832727</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1600006177138581</v>
+        <v>0.1580402973195131</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -786,19 +786,19 @@
         <v>117855</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97537</v>
+        <v>99825</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>138679</v>
+        <v>138742</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1365356795264304</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.11299805809005</v>
+        <v>0.1156482628077903</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1606609817578505</v>
+        <v>0.1607343763259304</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>284784</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>270284</v>
+        <v>270426</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>296193</v>
+        <v>296834</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8498284438154466</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8065580966620849</v>
+        <v>0.8069827996352144</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8838736883253574</v>
+        <v>0.8857858388344227</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>452</v>
@@ -836,19 +836,19 @@
         <v>460539</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>443578</v>
+        <v>444614</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>475251</v>
+        <v>473494</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8721175088819122</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8399993822861419</v>
+        <v>0.841959702680487</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8999769470256173</v>
+        <v>0.8966504574167274</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>745</v>
@@ -857,19 +857,19 @@
         <v>745323</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>724499</v>
+        <v>724436</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>765641</v>
+        <v>763353</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8634643204735696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8393390182421495</v>
+        <v>0.83926562367407</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8870019419099502</v>
+        <v>0.8843517371922098</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>53082</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41550</v>
+        <v>41964</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66419</v>
+        <v>68463</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2102896924543672</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1646050382453919</v>
+        <v>0.166244156541983</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2631230828210141</v>
+        <v>0.271220187954294</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>99</v>
@@ -982,19 +982,19 @@
         <v>104740</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>87452</v>
+        <v>86272</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>123462</v>
+        <v>123465</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2591611337846894</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2163848400219708</v>
+        <v>0.2134646785406822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3054842944199894</v>
+        <v>0.3054919687621473</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>153</v>
@@ -1003,19 +1003,19 @@
         <v>157823</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>137158</v>
+        <v>135498</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>180921</v>
+        <v>182069</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2403721977017121</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2088992806182046</v>
+        <v>0.2063697022153819</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2755524284756311</v>
+        <v>0.2773005039647128</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>199343</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>186006</v>
+        <v>183962</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>210875</v>
+        <v>210461</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7897103075456328</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7368769171789858</v>
+        <v>0.7287798120457063</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.835394961754608</v>
+        <v>0.833755843458017</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>293</v>
@@ -1053,19 +1053,19 @@
         <v>299412</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>280690</v>
+        <v>280687</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>316700</v>
+        <v>317880</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7408388662153106</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6945157055800106</v>
+        <v>0.6945080312378528</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7836151599780292</v>
+        <v>0.7865353214593178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>489</v>
@@ -1074,19 +1074,19 @@
         <v>498754</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>475656</v>
+        <v>474508</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>519419</v>
+        <v>521079</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7596278022982879</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7244475715243689</v>
+        <v>0.7226994960352872</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7911007193817953</v>
+        <v>0.793630297784618</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>26965</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18634</v>
+        <v>18562</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35960</v>
+        <v>36641</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3757185451616235</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2596323874704479</v>
+        <v>0.2586311383193032</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.501057780647221</v>
+        <v>0.5105411233271652</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -1199,19 +1199,19 @@
         <v>38582</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28878</v>
+        <v>27981</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49417</v>
+        <v>49057</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3321824623927301</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2486297396213646</v>
+        <v>0.2409098861949103</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4254634882769777</v>
+        <v>0.4223621086336838</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -1220,19 +1220,19 @@
         <v>65547</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52362</v>
+        <v>52504</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79769</v>
+        <v>80103</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3488096607763096</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2786432932767401</v>
+        <v>0.279398894343244</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4244937276287103</v>
+        <v>0.4262688071073891</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>44804</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>35809</v>
+        <v>35128</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53135</v>
+        <v>53207</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6242814548383766</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4989422193527788</v>
+        <v>0.489458876672835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.740367612529552</v>
+        <v>0.7413688616806973</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>75</v>
@@ -1270,19 +1270,19 @@
         <v>77566</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>66731</v>
+        <v>67091</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>87270</v>
+        <v>88167</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6678175376072699</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5745365117230223</v>
+        <v>0.5776378913663168</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7513702603786356</v>
+        <v>0.7590901138050897</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>117</v>
@@ -1291,19 +1291,19 @@
         <v>122369</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>108147</v>
+        <v>107813</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>135554</v>
+        <v>135412</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6511903392236903</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5755062723712897</v>
+        <v>0.5737311928926104</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7213567067232597</v>
+        <v>0.7206011056567559</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>130371</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>112921</v>
+        <v>110486</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>154422</v>
+        <v>150898</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1977408233790627</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1712729251392037</v>
+        <v>0.1675802193453685</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2342203889680147</v>
+        <v>0.2288753790743633</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>202</v>
@@ -1416,19 +1416,19 @@
         <v>210854</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>187173</v>
+        <v>185204</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>238209</v>
+        <v>236783</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.201125216867155</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1785368794246313</v>
+        <v>0.176659003874954</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2272182149675497</v>
+        <v>0.2258585717630131</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>332</v>
@@ -1437,19 +1437,19 @@
         <v>341225</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>311716</v>
+        <v>310393</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>376730</v>
+        <v>375671</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1998185624610324</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1825387580403621</v>
+        <v>0.181763663909125</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2206105094917492</v>
+        <v>0.2199903260549481</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>528931</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>504880</v>
+        <v>508404</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>546381</v>
+        <v>548816</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8022591766209373</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7657796110319857</v>
+        <v>0.7711246209256369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8287270748607963</v>
+        <v>0.8324197806546316</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>820</v>
@@ -1487,19 +1487,19 @@
         <v>837516</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>810161</v>
+        <v>811587</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>861197</v>
+        <v>863166</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.798874783132845</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7727817850324504</v>
+        <v>0.774141428236987</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8214631205753687</v>
+        <v>0.8233409961250461</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1351</v>
@@ -1508,19 +1508,19 @@
         <v>1366447</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1330942</v>
+        <v>1332001</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1395956</v>
+        <v>1397279</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8001814375389675</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7793894905082508</v>
+        <v>0.7800096739450521</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.817461241959638</v>
+        <v>0.818236336090875</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>76152</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61279</v>
+        <v>60175</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93060</v>
+        <v>92305</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2211129769850416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1779281298713787</v>
+        <v>0.1747222761983878</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2702050256448441</v>
+        <v>0.2680136130819917</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>78</v>
@@ -1872,19 +1872,19 @@
         <v>82954</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65983</v>
+        <v>66915</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101429</v>
+        <v>100875</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.15071713267628</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1198832109835421</v>
+        <v>0.121576258972732</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1842825605756011</v>
+        <v>0.1832775091462091</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>149</v>
@@ -1893,19 +1893,19 @@
         <v>159107</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>136523</v>
+        <v>135816</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>184072</v>
+        <v>182643</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.177812120236568</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1525733712669575</v>
+        <v>0.1517835973979251</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2057124566962287</v>
+        <v>0.2041151218948616</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>268252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251344</v>
+        <v>252099</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283125</v>
+        <v>284229</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7788870230149584</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7297949743551559</v>
+        <v>0.7319863869180082</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8220718701286213</v>
+        <v>0.8252777238016121</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>441</v>
@@ -1943,19 +1943,19 @@
         <v>467443</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>448968</v>
+        <v>449522</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>484414</v>
+        <v>483482</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8492828673237199</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8157174394243989</v>
+        <v>0.816722490853791</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8801167890164578</v>
+        <v>0.8784237410272681</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>686</v>
@@ -1964,19 +1964,19 @@
         <v>735695</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>710730</v>
+        <v>712159</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>758279</v>
+        <v>758986</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.822187879763432</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7942875433037716</v>
+        <v>0.7958848781051387</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.847426628733043</v>
+        <v>0.848216402602075</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>67187</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51934</v>
+        <v>53821</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82786</v>
+        <v>84228</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1872694758249523</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.144754832642155</v>
+        <v>0.1500154253977795</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2307476151816893</v>
+        <v>0.2347670547907494</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -2089,19 +2089,19 @@
         <v>98674</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>81812</v>
+        <v>82998</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119561</v>
+        <v>116878</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2000040103747894</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1658266464535851</v>
+        <v>0.1682299161474709</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2423394950371102</v>
+        <v>0.2369007197463717</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>160</v>
@@ -2110,19 +2110,19 @@
         <v>165861</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>142885</v>
+        <v>143097</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>190473</v>
+        <v>188497</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1946424253179</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1676797261347186</v>
+        <v>0.167927853128321</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2235256554100061</v>
+        <v>0.2212060238699085</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>291584</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>275985</v>
+        <v>274543</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>306837</v>
+        <v>304950</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8127305241750477</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.769252384818311</v>
+        <v>0.7652329452092504</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8552451673578452</v>
+        <v>0.8499845746022204</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>365</v>
@@ -2160,19 +2160,19 @@
         <v>394687</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>373800</v>
+        <v>376483</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>411549</v>
+        <v>410363</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7999959896252106</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7576605049628898</v>
+        <v>0.7630992802536283</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8341733535464149</v>
+        <v>0.831770083852529</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>635</v>
@@ -2181,19 +2181,19 @@
         <v>686271</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>661659</v>
+        <v>663635</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>709247</v>
+        <v>709035</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8053575746821</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7764743445899939</v>
+        <v>0.7787939761300914</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8323202738652813</v>
+        <v>0.8320721468716789</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>19749</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12423</v>
+        <v>12479</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28751</v>
+        <v>29499</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2600538785013367</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1635842783338391</v>
+        <v>0.1643147124100504</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3785836520568339</v>
+        <v>0.3884335806887254</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -2306,19 +2306,19 @@
         <v>31679</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22535</v>
+        <v>22536</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42014</v>
+        <v>43062</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.291576931472145</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2074108742020432</v>
+        <v>0.2074180578488145</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3866957924979847</v>
+        <v>0.396344580284424</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -2327,19 +2327,19 @@
         <v>51429</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40341</v>
+        <v>38553</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66263</v>
+        <v>66767</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2786080170779709</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2185448121458059</v>
+        <v>0.2088575299187695</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.358969983571602</v>
+        <v>0.3617015447278908</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>56194</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>47192</v>
+        <v>46444</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>63520</v>
+        <v>63464</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7399461214986633</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6214163479431662</v>
+        <v>0.6115664193112752</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8364157216661606</v>
+        <v>0.8356852875899499</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>65</v>
@@ -2377,19 +2377,19 @@
         <v>76969</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>66634</v>
+        <v>65586</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86113</v>
+        <v>86112</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7084230685278551</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6133042075020153</v>
+        <v>0.6036554197155741</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7925891257979567</v>
+        <v>0.7925819421511855</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>114</v>
@@ -2398,19 +2398,19 @@
         <v>133162</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>118328</v>
+        <v>117824</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>144250</v>
+        <v>146038</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7213919829220291</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6410300164283977</v>
+        <v>0.6382984552721093</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7814551878541941</v>
+        <v>0.7911424700812305</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>163088</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>139316</v>
+        <v>141949</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>186436</v>
+        <v>187876</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2093242861209806</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1788126776559532</v>
+        <v>0.1821921674209751</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2392909669214234</v>
+        <v>0.2411392200394969</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>202</v>
@@ -2523,19 +2523,19 @@
         <v>213308</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>185933</v>
+        <v>188558</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>239723</v>
+        <v>241700</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1850977325699767</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.161343061843208</v>
+        <v>0.1636208341879226</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.208019407970287</v>
+        <v>0.2097348709610065</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>354</v>
@@ -2544,19 +2544,19 @@
         <v>376396</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>342212</v>
+        <v>333431</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>418735</v>
+        <v>411691</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1948699814576921</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1771716977528802</v>
+        <v>0.1726257875046069</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2167896208332357</v>
+        <v>0.2131430207790542</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>616030</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>592682</v>
+        <v>591242</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>639802</v>
+        <v>637169</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7906757138790195</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7607090330785764</v>
+        <v>0.7588607799605023</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8211873223440468</v>
+        <v>0.8178078325790249</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>871</v>
@@ -2594,19 +2594,19 @@
         <v>939099</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>912684</v>
+        <v>910707</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>966474</v>
+        <v>963849</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8149022674300233</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7919805920297129</v>
+        <v>0.7902651290389936</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8386569381567919</v>
+        <v>0.8363791658120774</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1435</v>
@@ -2615,19 +2615,19 @@
         <v>1555129</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1512790</v>
+        <v>1519834</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1589313</v>
+        <v>1598094</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8051300185423079</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7832103791667644</v>
+        <v>0.786856979220946</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.82282830224712</v>
+        <v>0.8273742124953931</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>39567</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29386</v>
+        <v>30016</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52388</v>
+        <v>51675</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1520851302410499</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1129517346691208</v>
+        <v>0.1153746278415282</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2013659842220675</v>
+        <v>0.1986253447247129</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -2979,19 +2979,19 @@
         <v>67687</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53457</v>
+        <v>52088</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84032</v>
+        <v>84714</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1606892631432994</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1269056269230828</v>
+        <v>0.1236571897052776</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1994908225438961</v>
+        <v>0.2011110246301133</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -3000,19 +3000,19 @@
         <v>107255</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88974</v>
+        <v>88016</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126666</v>
+        <v>129996</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1574041189864794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1305753717362941</v>
+        <v>0.1291702135102391</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1858918164389238</v>
+        <v>0.1907790309192822</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>220597</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>207776</v>
+        <v>208489</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>230778</v>
+        <v>230148</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.84791486975895</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7986340157779322</v>
+        <v>0.801374655275287</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8870482653308792</v>
+        <v>0.8846253721584719</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>316</v>
@@ -3050,19 +3050,19 @@
         <v>353545</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337200</v>
+        <v>336518</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>367775</v>
+        <v>369144</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8393107368567005</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8005091774561046</v>
+        <v>0.7988889753698867</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8730943730769173</v>
+        <v>0.8763428102947225</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>540</v>
@@ -3071,19 +3071,19 @@
         <v>574141</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>554730</v>
+        <v>551400</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>592422</v>
+        <v>593380</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8425958810135206</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8141081835610762</v>
+        <v>0.8092209690807174</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8694246282637057</v>
+        <v>0.8708297864897608</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>82324</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67171</v>
+        <v>65405</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100093</v>
+        <v>101062</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.176466861450218</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1439846182682798</v>
+        <v>0.1401990424613168</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2145556905422558</v>
+        <v>0.2166316863050438</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>106</v>
@@ -3196,19 +3196,19 @@
         <v>112552</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93247</v>
+        <v>94496</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132293</v>
+        <v>134265</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1887881177314249</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1564063721810573</v>
+        <v>0.1585027951448955</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2219001502541765</v>
+        <v>0.2252091640171093</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>181</v>
@@ -3217,19 +3217,19 @@
         <v>194876</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>171187</v>
+        <v>169591</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>221779</v>
+        <v>221700</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1833791904330456</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.161087554150678</v>
+        <v>0.1595856431004438</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.208695200529735</v>
+        <v>0.2086202315644258</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>384190</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>366421</v>
+        <v>365452</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>399343</v>
+        <v>401109</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8235331385497821</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7854443094577442</v>
+        <v>0.7833683136949562</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8560153817317204</v>
+        <v>0.8598009575386832</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>457</v>
@@ -3267,19 +3267,19 @@
         <v>483629</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>463888</v>
+        <v>461916</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>502934</v>
+        <v>501685</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8112118822685751</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7780998497458237</v>
+        <v>0.7747908359828909</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8435936278189429</v>
+        <v>0.8414972048551045</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>817</v>
@@ -3288,19 +3288,19 @@
         <v>867819</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>840916</v>
+        <v>840995</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>891508</v>
+        <v>893104</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8166208095669544</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7913047994702648</v>
+        <v>0.7913797684355742</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.838912445849322</v>
+        <v>0.840414356899556</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>34061</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24856</v>
+        <v>24160</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45535</v>
+        <v>44423</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2845379007005657</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.207641268238784</v>
+        <v>0.2018290138233695</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3803938089433742</v>
+        <v>0.3711045195293646</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -3413,19 +3413,19 @@
         <v>38737</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29226</v>
+        <v>28653</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51427</v>
+        <v>50246</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2794415133136657</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2108275868602571</v>
+        <v>0.2067004561625403</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3709822652416308</v>
+        <v>0.362464051483615</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -3434,19 +3434,19 @@
         <v>72798</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60059</v>
+        <v>58394</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90167</v>
+        <v>89177</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2818030979548879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2324896746337412</v>
+        <v>0.2260449405162621</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3490419111969749</v>
+        <v>0.345209034420963</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>85644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>74170</v>
+        <v>75282</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94849</v>
+        <v>95545</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7154620992994343</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6196061910566255</v>
+        <v>0.6288954804706353</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7923587317612159</v>
+        <v>0.7981709861766302</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>94</v>
@@ -3484,19 +3484,19 @@
         <v>99886</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>87196</v>
+        <v>88377</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>109397</v>
+        <v>109970</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7205584866863343</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6290177347583689</v>
+        <v>0.6375359485163848</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7891724131397428</v>
+        <v>0.7932995438374596</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>171</v>
@@ -3505,19 +3505,19 @@
         <v>185530</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>168161</v>
+        <v>169151</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>198269</v>
+        <v>199934</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7181969020451121</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6509580888030251</v>
+        <v>0.654790965579037</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7675103253662587</v>
+        <v>0.7739550594837378</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>155952</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>134111</v>
+        <v>135458</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>180316</v>
+        <v>179634</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1842569364509325</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1584519305261297</v>
+        <v>0.1600438449744518</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2130427608726178</v>
+        <v>0.212237413997086</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>202</v>
@@ -3630,19 +3630,19 @@
         <v>218976</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>192682</v>
+        <v>193181</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>247373</v>
+        <v>249144</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1894199947832048</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1666748522486141</v>
+        <v>0.1671061262159158</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.213984223304728</v>
+        <v>0.2155156466498779</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>348</v>
@@ -3651,19 +3651,19 @@
         <v>374928</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>338098</v>
+        <v>337934</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>411066</v>
+        <v>413212</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1872376719645986</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1688447867322413</v>
+        <v>0.1687629661429047</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2052849255770839</v>
+        <v>0.2063562159031113</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>690431</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>666067</v>
+        <v>666749</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>712272</v>
+        <v>710925</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8157430635490676</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7869572391273822</v>
+        <v>0.787762586002914</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8415480694738703</v>
+        <v>0.8399561550255483</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>867</v>
@@ -3701,19 +3701,19 @@
         <v>937060</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>908663</v>
+        <v>906892</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>963354</v>
+        <v>962855</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8105800052167952</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.786015776695272</v>
+        <v>0.7844843533501219</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.833325147751386</v>
+        <v>0.8328938737840842</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1528</v>
@@ -3722,19 +3722,19 @@
         <v>1627491</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1591353</v>
+        <v>1589207</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1664321</v>
+        <v>1664485</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8127623280354014</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.794715074422916</v>
+        <v>0.7936437840968886</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8311552132677587</v>
+        <v>0.8312370338570952</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>28630</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20963</v>
+        <v>20498</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38144</v>
+        <v>37603</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1965318608645991</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1439016499437966</v>
+        <v>0.1407101137742851</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2618469989550114</v>
+        <v>0.2581318525414145</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -4086,19 +4086,19 @@
         <v>35714</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27675</v>
+        <v>27427</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44913</v>
+        <v>44916</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1387932904412437</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1075531349245684</v>
+        <v>0.1065900048656857</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1745438543154636</v>
+        <v>0.1745574459416667</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -4107,19 +4107,19 @@
         <v>64343</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52903</v>
+        <v>53532</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77167</v>
+        <v>77579</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1596648256431092</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.131277689592093</v>
+        <v>0.1328387798425555</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1914868347521764</v>
+        <v>0.1925093988510002</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>117044</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107530</v>
+        <v>108071</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124711</v>
+        <v>125176</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8034681391354009</v>
+        <v>0.8034681391354008</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7381530010449885</v>
+        <v>0.7418681474585853</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8560983500562036</v>
+        <v>0.8592898862257149</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>379</v>
@@ -4157,19 +4157,19 @@
         <v>221601</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>212402</v>
+        <v>212399</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>229640</v>
+        <v>229888</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8612067095587564</v>
+        <v>0.8612067095587562</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8254561456845365</v>
+        <v>0.8254425540583336</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8924468650754315</v>
+        <v>0.8934099951343145</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>527</v>
@@ -4178,19 +4178,19 @@
         <v>338645</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>325821</v>
+        <v>325409</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>350085</v>
+        <v>349456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8403351743568909</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8085131652478236</v>
+        <v>0.8074906011489998</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8687223104079072</v>
+        <v>0.8671612201574445</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>94828</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78103</v>
+        <v>77711</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114195</v>
+        <v>114354</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2393246023539208</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1971148902016721</v>
+        <v>0.1961245287155419</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2882025284814237</v>
+        <v>0.2886047100640199</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>165</v>
@@ -4303,19 +4303,19 @@
         <v>128997</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>111278</v>
+        <v>112133</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>149024</v>
+        <v>150189</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2639391397914215</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2276830865776363</v>
+        <v>0.2294323999218642</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3049155429464572</v>
+        <v>0.3072981668145327</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>256</v>
@@ -4324,19 +4324,19 @@
         <v>223825</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>198280</v>
+        <v>200226</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>251970</v>
+        <v>252147</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2529183593757695</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2240528127811041</v>
+        <v>0.2262517234393438</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2847212701525758</v>
+        <v>0.284921070244791</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>301404</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>282037</v>
+        <v>281878</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>318129</v>
+        <v>318521</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7606753976460794</v>
+        <v>0.7606753976460792</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7117974715185764</v>
+        <v>0.71139528993598</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8028851097983279</v>
+        <v>0.8038754712844579</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>500</v>
@@ -4374,19 +4374,19 @@
         <v>359742</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>339715</v>
+        <v>338550</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>377461</v>
+        <v>376606</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7360608602085785</v>
+        <v>0.7360608602085784</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6950844570535428</v>
+        <v>0.6927018331854673</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7723169134223637</v>
+        <v>0.7705676000781357</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>788</v>
@@ -4395,19 +4395,19 @@
         <v>661146</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>633001</v>
+        <v>632824</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>686691</v>
+        <v>684745</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7470816406242304</v>
+        <v>0.7470816406242305</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7152787298474244</v>
+        <v>0.7150789297552091</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7759471872188959</v>
+        <v>0.7737482765606564</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>43853</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30919</v>
+        <v>32449</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54896</v>
+        <v>55849</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3020278531713359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2129479579388833</v>
+        <v>0.2234813179587017</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3780815330815702</v>
+        <v>0.3846467985212638</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -4520,19 +4520,19 @@
         <v>54408</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44438</v>
+        <v>44193</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65377</v>
+        <v>66045</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3092185736595739</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2525585813370507</v>
+        <v>0.2511659373750521</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3715597491261695</v>
+        <v>0.3753570847084911</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>118</v>
@@ -4541,19 +4541,19 @@
         <v>98261</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82727</v>
+        <v>81634</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>114047</v>
+        <v>113861</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3059675430714798</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2575992753592451</v>
+        <v>0.2541945495113832</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3551239396582554</v>
+        <v>0.3545424543474316</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>101343</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>90300</v>
+        <v>89347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>114277</v>
+        <v>112747</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6979721468286642</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6219184669184299</v>
+        <v>0.6153532014787362</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7870520420611167</v>
+        <v>0.7765186820412983</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>164</v>
@@ -4591,19 +4591,19 @@
         <v>121544</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>110575</v>
+        <v>109907</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>131514</v>
+        <v>131759</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6907814263404261</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6284402508738306</v>
+        <v>0.6246429152915083</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7474414186629493</v>
+        <v>0.7488340626249479</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>264</v>
@@ -4612,19 +4612,19 @@
         <v>222887</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>207101</v>
+        <v>207287</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>238421</v>
+        <v>239514</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6940324569285203</v>
+        <v>0.6940324569285201</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6448760603417445</v>
+        <v>0.6454575456525684</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.742400724640755</v>
+        <v>0.7458054504886168</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>167311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>146117</v>
+        <v>144779</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>193163</v>
+        <v>191402</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2435022655720984</v>
+        <v>0.2435022655720985</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2126568374549531</v>
+        <v>0.2107100627647864</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2811265673727674</v>
+        <v>0.278563975889184</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>301</v>
@@ -4737,19 +4737,19 @@
         <v>219119</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>198113</v>
+        <v>196695</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>245497</v>
+        <v>242239</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2376542382443492</v>
+        <v>0.2376542382443493</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2148712771783426</v>
+        <v>0.2133340152201816</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2662640446909605</v>
+        <v>0.2627307571817006</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>474</v>
@@ -4758,19 +4758,19 @@
         <v>386429</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>351538</v>
+        <v>354526</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>419115</v>
+        <v>421732</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2401513919654962</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2184680536116781</v>
+        <v>0.2203246903698762</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2604645611006672</v>
+        <v>0.2620904596644491</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>519791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>493939</v>
+        <v>495700</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>540985</v>
+        <v>542323</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7564977344279016</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7188734326272327</v>
+        <v>0.721436024110816</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7873431625450471</v>
+        <v>0.7892899372352135</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1043</v>
@@ -4808,19 +4808,19 @@
         <v>702887</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>676509</v>
+        <v>679767</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>723893</v>
+        <v>725311</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7623457617556506</v>
+        <v>0.7623457617556507</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7337359553090395</v>
+        <v>0.7372692428182992</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7851287228216572</v>
+        <v>0.7866659847798183</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1579</v>
@@ -4829,19 +4829,19 @@
         <v>1222678</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1189992</v>
+        <v>1187375</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1257569</v>
+        <v>1254581</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7598486080345039</v>
+        <v>0.7598486080345038</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7395354388993327</v>
+        <v>0.7379095403355509</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7815319463883215</v>
+        <v>0.779675309630124</v>
       </c>
     </row>
     <row r="15">
